--- a/data/n2v/tables/model-1-1536-20230829-23.xlsx
+++ b/data/n2v/tables/model-1-1536-20230829-23.xlsx
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         </is>
       </c>
       <c r="C802" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         </is>
       </c>
       <c r="C813" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         </is>
       </c>
       <c r="C866" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         </is>
       </c>
       <c r="C984" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1086" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1088" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1089" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1090" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1091" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1096" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1099" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1101" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1102" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1104" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1106" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1108" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1109" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1110" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1113" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1117" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1119" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1121" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1123" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1128" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1129" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1130" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1132" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1134" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1135" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1143" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1144" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1147" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1156" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1158" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         </is>
       </c>
       <c r="C1159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1159" t="inlineStr">
         <is>
@@ -21304,7 +21304,7 @@
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1160" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1161" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         </is>
       </c>
       <c r="C1162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1162" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1164" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1165" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1166" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         </is>
       </c>
       <c r="C1167" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1167" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1169" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         </is>
       </c>
       <c r="C1170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1170" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1171" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1174" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1176" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1177" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1178" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="C1179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1179" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1180" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         </is>
       </c>
       <c r="C1182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1182" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1185" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1186" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1191" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1194" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="C1196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1196" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1197" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         </is>
       </c>
       <c r="C1198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1198" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1199" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1201" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1202" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="C1204" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1204" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         </is>
       </c>
       <c r="C1205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1205" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         </is>
       </c>
       <c r="C1207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1207" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         </is>
       </c>
       <c r="C1208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1208" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1213" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         </is>
       </c>
       <c r="C1215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1215" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1216" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         </is>
       </c>
       <c r="C1218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1218" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1222" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         </is>
       </c>
       <c r="C1223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1223" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         </is>
       </c>
       <c r="C1225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1225" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1226" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         </is>
       </c>
       <c r="C1228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1228" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="C1229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1229" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         </is>
       </c>
       <c r="C1230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1230" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1233" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1235" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1236" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         </is>
       </c>
       <c r="C1240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1240" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         </is>
       </c>
       <c r="C1242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1242" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         </is>
       </c>
       <c r="C1243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1243" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1245" t="inlineStr">
         <is>
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1246" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         </is>
       </c>
       <c r="C1248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1248" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1251" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         </is>
       </c>
       <c r="C1252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1252" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         </is>
       </c>
       <c r="C1253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1253" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="C1254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1254" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         </is>
       </c>
       <c r="C1257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1257" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1258" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1260" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         </is>
       </c>
       <c r="C1261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1261" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1262" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         </is>
       </c>
       <c r="C1263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1263" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1264" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         </is>
       </c>
       <c r="C1268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1268" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="C1271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1271" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         </is>
       </c>
       <c r="C1274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1274" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1276" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         </is>
       </c>
       <c r="C1277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1277" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         </is>
       </c>
       <c r="C1278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1278" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1280" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         </is>
       </c>
       <c r="C1283" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1283" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         </is>
       </c>
       <c r="C1284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1284" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         </is>
       </c>
       <c r="C1285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1285" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         </is>
       </c>
       <c r="C1286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1286" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         </is>
       </c>
       <c r="C1287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1287" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         </is>
       </c>
       <c r="C1288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1288" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         </is>
       </c>
       <c r="C1289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1289" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         </is>
       </c>
       <c r="C1290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1290" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         </is>
       </c>
       <c r="C1291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1291" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         </is>
       </c>
       <c r="C1292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1292" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         </is>
       </c>
       <c r="C1293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1293" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         </is>
       </c>
       <c r="C1294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1294" t="inlineStr">
         <is>
@@ -23734,7 +23734,7 @@
         </is>
       </c>
       <c r="C1295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1295" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         </is>
       </c>
       <c r="C1298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1298" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1299" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1300" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1301" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1303" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1304" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="C1308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1308" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         </is>
       </c>
       <c r="C1310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1310" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         </is>
       </c>
       <c r="C1311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1311" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1318" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         </is>
       </c>
       <c r="C1320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1320" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         </is>
       </c>
       <c r="C1322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1322" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         </is>
       </c>
       <c r="C1325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1325" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         </is>
       </c>
       <c r="C1326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1326" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         </is>
       </c>
       <c r="C1328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1328" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1333" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1335" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         </is>
       </c>
       <c r="C1339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1339" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         </is>
       </c>
       <c r="C1345" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1345" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1347" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1348" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1350" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1352" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         </is>
       </c>
       <c r="C1353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1353" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         </is>
       </c>
       <c r="C1355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1355" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         </is>
       </c>
       <c r="C1356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1356" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         </is>
       </c>
       <c r="C1359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1359" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         </is>
       </c>
       <c r="C1360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1360" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         </is>
       </c>
       <c r="C1361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1361" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1364" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         </is>
       </c>
       <c r="C1366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1366" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1367" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         </is>
       </c>
       <c r="C1371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1371" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         </is>
       </c>
       <c r="C1372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1372" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         </is>
       </c>
       <c r="C1375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1375" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         </is>
       </c>
       <c r="C1376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         </is>
       </c>
       <c r="C1378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1378" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1380" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         </is>
       </c>
       <c r="C1381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1381" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1384" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1385" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         </is>
       </c>
       <c r="C1392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1392" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1399" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         </is>
       </c>
       <c r="C1400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1400" t="inlineStr">
         <is>
@@ -25660,7 +25660,7 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1402" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         </is>
       </c>
       <c r="C1405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1405" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1406" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         </is>
       </c>
       <c r="C1407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1407" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         </is>
       </c>
       <c r="C1408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1408" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         </is>
       </c>
       <c r="C1409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1409" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         </is>
       </c>
       <c r="C1412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1412" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1415" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         </is>
       </c>
       <c r="C1417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1417" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1420" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         </is>
       </c>
       <c r="C1421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1421" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         </is>
       </c>
       <c r="C1424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1424" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         </is>
       </c>
       <c r="C1428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1428" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         </is>
       </c>
       <c r="C1435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1435" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         </is>
       </c>
       <c r="C1437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1437" t="inlineStr">
         <is>
@@ -26416,7 +26416,7 @@
         </is>
       </c>
       <c r="C1444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1444" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         </is>
       </c>
       <c r="C1449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1449" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         </is>
       </c>
       <c r="C1452" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1452" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1454" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         </is>
       </c>
       <c r="C1456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1456" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         </is>
       </c>
       <c r="C1470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1470" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         </is>
       </c>
       <c r="C1472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1472" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         </is>
       </c>
       <c r="C1478" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1478" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         </is>
       </c>
       <c r="C1480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         </is>
       </c>
       <c r="C1483" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1483" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         </is>
       </c>
       <c r="C1484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1484" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         </is>
       </c>
       <c r="C1491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1491" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         </is>
       </c>
       <c r="C1500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1500" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         </is>
       </c>
       <c r="C1510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1510" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         </is>
       </c>
       <c r="C1544" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1544" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         </is>
       </c>
       <c r="C1547" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1547" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         </is>
       </c>
       <c r="C1555" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1555" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         </is>
       </c>
       <c r="C1560" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1560" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         </is>
       </c>
       <c r="C1567" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1567" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         </is>
       </c>
       <c r="C1577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1577" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         </is>
       </c>
       <c r="C1584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1584" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         </is>
       </c>
       <c r="C1587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1587" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         </is>
       </c>
       <c r="C1596" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1596" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         </is>
       </c>
       <c r="C1597" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1597" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         </is>
       </c>
       <c r="C1604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1604" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         </is>
       </c>
       <c r="C1611" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1611" t="inlineStr">
         <is>
